--- a/lib/tests_50.xlsx
+++ b/lib/tests_50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishikawatadashi/RubymineProjects/examin/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishikawatadashi/RubymineProjects/examin_rails/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7DB860-9BB4-C644-9F28-875160A20CE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10446E9-CA6A-C747-A4B6-9CFCCB72AF8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B5B7992C-F6AD-854E-97C9-6BC6B6E5C3A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B5B7992C-F6AD-854E-97C9-6BC6B6E5C3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト_50" sheetId="3" r:id="rId1"/>
@@ -60,316 +60,312 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@problem.title}</t>
+    <t>@questions[0][:sentence]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[0].sentence}</t>
+    <t>@questions[0][:correct]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[1].sentence}</t>
+    <t>@questions[1][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[1][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[2][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[2][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[3][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[3][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[4][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[4][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[5][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[5][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[6][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[6][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[7][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[7][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[8][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[8][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[9][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[9][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[10][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[10][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[11][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[11][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[12][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[12][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[13][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[13][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[14][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[14][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[15][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[15][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[16][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[16][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[17][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[17][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[18][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[18][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[19][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[19][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[20][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[20][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[21][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[21][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[22][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[22][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[23][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[23][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[24][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[24][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[25][:sentence]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[2].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[3].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[4].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[5].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[6].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[7].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[8].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[9].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[10].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[11].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[12].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[13].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[14].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[15].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[16].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[17].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[18].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[19].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[20].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[21].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[22].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[23].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[24].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[0].correct}</t>
+    <t>@questions[25][:correct]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[1].correct}</t>
+    <t>@questions[26][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[26][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[27][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[27][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[28][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[28][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[29][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[29][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[30][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[30][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[31][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[31][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[32][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[32][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[33][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[33][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[34][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[34][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[35][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[35][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[36][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[36][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[37][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[37][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[38][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[38][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[39][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[39][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[40][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[40][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[41][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[41][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[42][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[42][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[43][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[43][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[44][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[44][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[45][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[45][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[46][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[46][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[47][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[47][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[48][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[48][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[49][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[49][:correct]</t>
+  </si>
+  <si>
+    <t>@problem[:title]</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[2].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[3].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[4].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[5].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[6].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[7].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[8].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[9].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[10].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[11].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[12].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[13].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[14].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[15].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[16].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[17].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[18].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[19].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[20].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[21].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[22].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[23].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[24].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[25].sentence}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[26].sentence}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[27].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[28].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[29].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[30].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[31].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[32].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[33].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[34].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[35].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[36].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[37].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[38].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[39].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[40].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[41].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[42].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[43].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[44].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[45].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[46].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[47].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[48].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[49].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[25].correct}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[26].correct}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[27].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[28].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[29].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[30].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[31].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[32].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[33].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[34].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[35].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[36].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[37].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[38].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[39].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[40].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[41].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[42].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[43].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[44].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[45].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[46].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[47].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[48].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[49].correct}</t>
   </si>
 </sst>
 </file>
@@ -471,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,19 +480,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +812,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -837,7 +830,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -845,11 +838,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1"/>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -861,7 +854,7 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -875,451 +868,476 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>55</v>
+      <c r="G4" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>28</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>57</v>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>29</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>58</v>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>59</v>
+      <c r="G8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>31</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
+      <c r="G9" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>32</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>61</v>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>33</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>62</v>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>34</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
+      <c r="G12" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>35</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>64</v>
+      <c r="G13" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>36</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>65</v>
+      <c r="G14" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>37</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>66</v>
+      <c r="G15" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>38</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>67</v>
+      <c r="G16" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>39</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>68</v>
+      <c r="G17" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>40</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>69</v>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>41</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
+      <c r="G19" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>42</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>71</v>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>43</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>72</v>
+      <c r="G21" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>23</v>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>44</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>73</v>
+      <c r="G22" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>24</v>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>45</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>74</v>
+      <c r="G23" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>25</v>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>46</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>75</v>
+      <c r="G24" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>47</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>76</v>
+      <c r="G25" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>27</v>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>48</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>77</v>
+      <c r="G26" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>28</v>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>49</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>78</v>
+      <c r="G27" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>29</v>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>50</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>79</v>
+      <c r="G28" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1337,7 +1355,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1355,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1363,11 +1381,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1"/>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1379,7 +1397,7 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -1393,550 +1411,575 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="8" t="s">
-        <v>81</v>
+      <c r="I5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>28</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>57</v>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="8" t="s">
-        <v>82</v>
+      <c r="I6" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>29</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>58</v>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="8" t="s">
-        <v>83</v>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>59</v>
+      <c r="G8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="8" t="s">
-        <v>84</v>
+      <c r="I8" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>31</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
+      <c r="G9" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="8" t="s">
-        <v>85</v>
+      <c r="I9" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>32</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>61</v>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="8" t="s">
-        <v>86</v>
+      <c r="I10" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>33</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>62</v>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
-        <v>87</v>
+      <c r="I11" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>34</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
+      <c r="G12" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
-        <v>88</v>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>35</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>64</v>
+      <c r="G13" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="8" t="s">
-        <v>89</v>
+      <c r="I13" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>36</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>65</v>
+      <c r="G14" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="8" t="s">
-        <v>90</v>
+      <c r="I14" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>37</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>66</v>
+      <c r="G15" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="8" t="s">
-        <v>91</v>
+      <c r="I15" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>38</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>67</v>
+      <c r="G16" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="8" t="s">
-        <v>92</v>
+      <c r="I16" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>39</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>68</v>
+      <c r="G17" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="8" t="s">
-        <v>93</v>
+      <c r="I17" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>40</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>69</v>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="8" t="s">
-        <v>94</v>
+      <c r="I18" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>41</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
+      <c r="G19" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="8" t="s">
-        <v>95</v>
+      <c r="I19" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>42</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>71</v>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="8" t="s">
-        <v>96</v>
+      <c r="I20" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>43</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>72</v>
+      <c r="G21" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="8" t="s">
-        <v>97</v>
+      <c r="I21" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>23</v>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>44</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>73</v>
+      <c r="G22" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="8" t="s">
-        <v>98</v>
+      <c r="I22" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>24</v>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>45</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>74</v>
+      <c r="G23" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="8" t="s">
-        <v>99</v>
+      <c r="I23" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>25</v>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>46</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>75</v>
+      <c r="G24" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="8" t="s">
-        <v>100</v>
+      <c r="I24" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="D25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>47</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>76</v>
+      <c r="G25" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="8" t="s">
-        <v>101</v>
+      <c r="I25" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>27</v>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>48</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>77</v>
+      <c r="G26" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="8" t="s">
-        <v>102</v>
+      <c r="I26" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>28</v>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>49</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>78</v>
+      <c r="G27" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="8" t="s">
-        <v>103</v>
+      <c r="I27" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>29</v>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>50</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>79</v>
+      <c r="G28" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="8" t="s">
-        <v>104</v>
+      <c r="I28" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
